--- a/textToOps/data/raw/units.xlsx
+++ b/textToOps/data/raw/units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heejinchae/Documents/github/Text2GeoAn/textToOps/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E70AE0F-013C-0541-BD16-FBAD83C4E094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648D001-C8F6-7143-AB6A-8CAD0A85201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{28EAAB28-9B20-3D40-8466-CD2F64D1E5AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{28EAAB28-9B20-3D40-8466-CD2F64D1E5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1DBA88-94D6-0D4F-9D8A-F80A228464A5}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/textToOps/data/raw/units.xlsx
+++ b/textToOps/data/raw/units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heejinchae/Documents/github/Text2GeoAn/textToOps/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648D001-C8F6-7143-AB6A-8CAD0A85201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F746A3-7F69-BA4B-B1CB-DF9584B45762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{28EAAB28-9B20-3D40-8466-CD2F64D1E5AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>km</t>
   </si>
@@ -108,6 +108,45 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>monInYear</t>
+  </si>
+  <si>
+    <t>january</t>
+  </si>
+  <si>
+    <t>february</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>july</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>october</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>december</t>
   </si>
 </sst>
 </file>
@@ -465,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1DBA88-94D6-0D4F-9D8A-F80A228464A5}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -617,6 +656,102 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
